--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,61 +436,46 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>-0.1634715480938964</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>-2.503026633163052</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.31761954538927</v>
+        <v>-1.317619545389281</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>0.6888449045935552</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>-1.31761954538927</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>0.1692474513351083</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,30 +486,21 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>3.609425886625339</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>2.771597318554297</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>3.628343599698969</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -535,30 +511,21 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>1.169339034160743</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>1.799362536952542</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>0.6019339353565023</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>4.818619766830312</v>
+        <v>4.792854588620821</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>2.123182427147152</v>
+        <v>4.880442637054072</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>4.990675812925582</v>
+        <v>1.641301872652501</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>6.33415002955966</v>
+        <v>7.239454936865775</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>7.317297369612819</v>
+        <v>5.941867202078877</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>5.969804644981291</v>
+        <v>2.672847571394987</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.29595620404217</v>
+        <v>0.4361429468412448</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>4.260319658857736</v>
+        <v>0.292749233164491</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>0.5177688839717476</v>
+        <v>2.181874035977249</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.191891383640931</v>
+        <v>1.392195163617171</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>-0.05262415810141086</v>
+        <v>2.032207428223742</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.170064026854179</v>
+        <v>2.13692496326825</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.283682996337033</v>
+        <v>1.493220091771108</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.459778471779982</v>
+        <v>2.775332754349846</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>2.91162218972072</v>
+        <v>2.200426660963761</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>3.141368102642828</v>
+        <v>2.622364272988187</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>3.002208343813528</v>
+        <v>3.2651197821016</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>3.609713327497399</v>
+        <v>2.271936475508851</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.737230524212798</v>
+        <v>3.565025829754953</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.011320934469008</v>
+        <v>2.446228176258058</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.951369010811856</v>
+        <v>4.01493878081518</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>2.814393891325029</v>
+        <v>3.091110147865495</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.151661456848687</v>
+        <v>3.113086948791377</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>4.020433260014977</v>
+        <v>3.283136334808323</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>3.414265482440926</v>
+        <v>2.403408536719187</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>3.498193990879561</v>
+        <v>3.444206290325491</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.473437657144562</v>
+        <v>2.496958452261078</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.473437336652374</v>
+        <v>3.479628752085517</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.371660794972863</v>
+        <v>2.54748094003614</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.492295186821214</v>
+        <v>2.757421718286168</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>3.53224976671227</v>
+        <v>2.31260691849986</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>2.15810425970917</v>
+        <v>2.363182008239928</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.068108937069524</v>
+        <v>2.667234932970275</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.339443560148146</v>
+        <v>2.567662999186382</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.6257981900360754</v>
+        <v>-0.985458715495402</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>0.02822784966425296</v>
+        <v>-1.999977666418695</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.158677136920438</v>
+        <v>-1.373617952268746</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-0.985458715495402</v>
+        <v>-4.853362183897836</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-0.5625294724799446</v>
+        <v>0.6599234717970859</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-3.230460817064207</v>
+        <v>-4.511102905979703</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.74442712952825</v>
+        <v>0.9582724917052587</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-4.251052026148628</v>
+        <v>-4.365687260408224</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.656212438505845</v>
+        <v>1.582150300418306</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.982321066053917</v>
+        <v>1.324283050325015</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-4.365687260408224</v>
+        <v>2.700663803921799</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>3.094432991283247</v>
+        <v>2.813733698830267</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.41788144952242</v>
+        <v>1.386772772629241</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.518635225266698</v>
+        <v>0.8813242377093244</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.495530390347999</v>
+        <v>1.27347919322387</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.320052410719797</v>
+        <v>0.4287685802702779</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.359183478082948</v>
+        <v>-0.5025420863900898</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.27347919322387</v>
+        <v>-0.185315122156382</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-1.770033892097977</v>
+        <v>1.715279842342743</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6902932880100465</v>
+        <v>-0.9537175292835154</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.32542493162331</v>
+        <v>0.9049225073274991</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.396072416567873</v>
+        <v>-1.339436245206127</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-3.455348590137297</v>
+        <v>-0.6598239038080322</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-2.765539321179955</v>
+        <v>-2.371854438773213</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-1.339436245206127</v>
+        <v>-2.5174493871855</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>-3.192473321073452</v>
+        <v>1.089612584330668</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.92816293250372</v>
+        <v>-3.303819519576723</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.6927922959721888</v>
+        <v>-0.3655818470008065</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-3.39661216620909</v>
+        <v>-3.451527003230626</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.3369494081789437</v>
+        <v>-1.070961900287937</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-1.123002263566031</v>
+        <v>-1.436963918858969</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-3.451527003230626</v>
+        <v>-1.652703512303566</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>-1.510559672577028</v>
+        <v>0.4469810487905734</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-1.657630308694935</v>
+        <v>-1.704805397136089</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.4486578513538175</v>
+        <v>0.1460701281005727</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.67392582565723</v>
+        <v>-1.75044229618867</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.204607811081226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>-1.75044229618867</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.7295772846297677</v>
+        <v>-0.1564272439962933</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>4.930115226412357</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.457587285166628</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>-1.317619545389281</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.9140166223623458</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>2.771597318554297</v>
+        <v>-2.034793027571991</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>0.6952816881563351</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>2.585942866987878</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>4.109775046142405</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.799362536952542</v>
+        <v>3.880748577052473</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>2.936333428994109</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>4.253963781362402</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>2.863367440851095</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>2.123182427147152</v>
+        <v>2.174296999091507</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>4.792854588620821</v>
+        <v>1.706732094556851</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.752870900283909</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>4.880442637054072</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>1.641301872652501</v>
+        <v>1.520397254708405</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>7.317297369612819</v>
+        <v>-1.942476814417471</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>7.239454936865775</v>
+        <v>1.288975737543607</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>-1.479696720105139</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.941867202078877</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>2.672847571394987</v>
+        <v>2.503951807923066</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.260319658857736</v>
+        <v>4.926006686093287</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>0.4361429468412448</v>
+        <v>2.643411312704802</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>3.900127535411246</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>0.292749233164491</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>2.181874035977249</v>
+        <v>1.194160460927884</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>-0.05262415810141086</v>
+        <v>0.7614971083056643</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.392195163617171</v>
+        <v>2.348955682567344</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>0.03947433952959933</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.032207428223742</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>2.13692496326825</v>
+        <v>1.459149667419779</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.459778471779982</v>
+        <v>3.004126378695804</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.493220091771108</v>
+        <v>2.358460376580607</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.192778679161944</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.775332754349846</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>2.200426660963761</v>
+        <v>1.586376095629216</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>3.002208343813528</v>
+        <v>2.384525276921168</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.622364272988187</v>
+        <v>2.349880264276161</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>3.40836448860673</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>3.2651197821016</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>2.271936475508851</v>
+        <v>2.570658574505469</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.565025829754953</v>
+        <v>1.512747556564698</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.446228176258058</v>
+        <v>2.136396488383507</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>4.01493878081518</v>
+        <v>2.677874785158663</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>3.091110147865495</v>
+        <v>2.507403033330702</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>4.020433260014977</v>
+        <v>2.474496385100733</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.113086948791377</v>
+        <v>2.141109033939292</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>2.799070570134488</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.283136334808323</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>2.403408536719187</v>
+        <v>2.479713128614147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>3.444206290325491</v>
+        <v>2.786825287537487</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.496958452261078</v>
+        <v>1.555206765808892</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.479628752085517</v>
+        <v>3.746278935679004</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.54748094003614</v>
+        <v>1.868164064786093</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.53224976671227</v>
+        <v>4.066325724929976</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.757421718286168</v>
+        <v>2.042884966056935</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>4.195393191694419</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.31260691849986</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>2.363182008239928</v>
+        <v>2.359935293525561</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.667234932970275</v>
+        <v>1.899045195796845</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.567662999186382</v>
+        <v>2.205372086670465</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.985458715495402</v>
+        <v>3.278383090085746</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-1.999977666418695</v>
+        <v>2.401026764575831</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.985458715495402</v>
+        <v>2.133862376612439</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.373617952268746</v>
+        <v>1.412539570439053</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>1.666553973046048</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-4.853362183897836</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>0.6599234717970859</v>
+        <v>-0.4512719783814068</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-4.511102905979703</v>
+        <v>-1.801793552285647</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>0.9582724917052587</v>
+        <v>1.696367270021448</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-4.365687260408224</v>
+        <v>2.877357105987888</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>1.582150300418306</v>
+        <v>2.770626214993133</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-4.365687260408224</v>
+        <v>1.773820722495745</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.324283050325015</v>
+        <v>2.446369413529137</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1.879266440112803</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>2.700663803921799</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>2.813733698830267</v>
+        <v>1.081814991510499</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.386772772629241</v>
+        <v>-0.1058999733161259</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>0.8813242377093244</v>
+        <v>2.729902493405767</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.27347919322387</v>
+        <v>-0.4001895765463725</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.4287685802702779</v>
+        <v>2.524513388369543</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.27347919322387</v>
+        <v>-2.404913754290983</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-0.5025420863900898</v>
+        <v>1.366747064788676</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>-2.620683231370946</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.185315122156382</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>1.715279842342743</v>
+        <v>-1.174318230871441</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.9537175292835154</v>
+        <v>-3.321926039826262</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.9049225073274991</v>
+        <v>1.506553781929298</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.339436245206127</v>
+        <v>-2.321114556364801</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.6598239038080322</v>
+        <v>1.637366184014355</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.339436245206127</v>
+        <v>-2.901570548279864</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-2.371854438773213</v>
+        <v>1.175840608617551</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-3.036556262700274</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-2.5174493871855</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>1.089612584330668</v>
+        <v>0.07123445333143685</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-3.303819519576723</v>
+        <v>-1.953081240592103</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.3655818470008065</v>
+        <v>0.8938306900690307</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-3.451527003230626</v>
+        <v>-0.9245282159112467</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-1.070961900287937</v>
+        <v>0.9277865862836965</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-3.451527003230626</v>
+        <v>-2.859191689251428</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-1.436963918858969</v>
+        <v>-0.3916886409131459</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-2.953443685011514</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>-1.652703512303566</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>0.4469810487905734</v>
+        <v>-1.196842846539037</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-1.704805397136089</v>
+        <v>-0.2732731229103447</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.1460701281005727</v>
+        <v>0.7812052424394755</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.75044229618867</v>
+        <v>0.2384226118222088</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.1564272439962933</v>
+        <v>0.8054161303035379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-1.131442475565558</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-0.4808467302335195</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.133862376612439</v>
+        <v>2.503164675968428</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>1.412539570439053</v>
+        <v>1.934186959725781</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.4512719783814068</v>
+        <v>0.7837484735428113</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.801793552285647</v>
+        <v>0.4087651970921646</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.696367270021448</v>
+        <v>2.174074899372003</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.877357105987888</v>
+        <v>2.234912758048124</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.770626214993133</v>
+        <v>2.383575743868915</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.773820722495745</v>
+        <v>1.790997941815009</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.446369413529137</v>
+        <v>2.420714079882469</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.081814991510499</v>
+        <v>1.897396692213404</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.1058999733161259</v>
+        <v>0.0830717359810107</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.729902493405767</v>
+        <v>2.675855470842681</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.4001895765463725</v>
+        <v>0.08570788764348247</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.524513388369543</v>
+        <v>2.96889299227252</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-2.404913754290983</v>
+        <v>-2.066535408877046</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.366747064788676</v>
+        <v>1.867721202249806</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-1.174318230871441</v>
+        <v>0.995548086544229</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-3.321926039826262</v>
+        <v>-2.434555341268407</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>1.506553781929298</v>
+        <v>2.144506316663386</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.321114556364801</v>
+        <v>-1.778873321846652</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>1.637366184014355</v>
+        <v>2.001423525630042</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.901570548279864</v>
+        <v>-2.622205600593475</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.175840608617551</v>
+        <v>1.705079001006782</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>0.07123445333143685</v>
+        <v>1.480960099708817</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-1.953081240592103</v>
+        <v>-1.294632054637612</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.8938306900690307</v>
+        <v>1.098524732799055</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.9245282159112467</v>
+        <v>-0.3329345025757879</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>0.9277865862836965</v>
+        <v>1.343930035002616</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.859191689251428</v>
+        <v>-2.557425278522063</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.3916886409131459</v>
+        <v>0.2347633540425553</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-1.196842846539037</v>
+        <v>-0.3708115103701948</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.2732731229103447</v>
+        <v>-0.1234681467954801</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.7812052424394755</v>
+        <v>0.6498810267316468</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.2384226118222088</v>
+        <v>0.2722169029249821</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.8054161303035379</v>
+        <v>0.9256757278928385</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-1.131442475565558</v>
+        <v>-0.9404639964518013</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-0.4808467302335195</v>
+        <v>0.05194865208939525</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>4.930115226412357</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.457587285166628</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -487,13 +481,13 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>-2.034793027571991</v>
+        <v>-2.034793027572002</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.6952816881563351</v>
+        <v>0.6952816881563129</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,7 +504,7 @@
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>4.109775046142405</v>
+        <v>4.10977504614245</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -521,13 +515,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>3.880748577052473</v>
+        <v>3.880748577052495</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>2.936333428994109</v>
+        <v>2.936333428994153</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -555,13 +549,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>2.174296999091507</v>
+        <v>2.174296999091485</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.706732094556851</v>
+        <v>1.706732094556873</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -589,13 +583,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-1.942476814417471</v>
+        <v>-1.942476814417493</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.288975737543607</v>
+        <v>1.288975737543674</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -606,13 +600,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>-1.479696720105139</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>2.503951807923066</v>
+        <v>2.503951807923088</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -646,7 +640,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>1.194160460927884</v>
+        <v>1.194160460927862</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -657,7 +651,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>0.7614971083056643</v>
+        <v>0.7614971083056421</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -680,7 +674,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>1.459149667419779</v>
+        <v>1.459149667419735</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -691,7 +685,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>3.004126378695804</v>
+        <v>3.004126378695826</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -708,7 +702,7 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.192778679161944</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="D20">
         <v>2017</v>
@@ -725,7 +719,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.384525276921168</v>
+        <v>2.38452527692119</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -742,13 +736,13 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>3.40836448860673</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="D22">
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>2.570658574505469</v>
+        <v>2.570658574505447</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -759,7 +753,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.512747556564698</v>
+        <v>1.512747556564675</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -776,7 +770,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.677874785158663</v>
+        <v>2.677874785158707</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -816,7 +810,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>2.479713128614147</v>
+        <v>2.479713128614192</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,7 +827,7 @@
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.555206765808892</v>
+        <v>1.555206765808848</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -844,7 +838,7 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.746278935679004</v>
+        <v>3.746278935679026</v>
       </c>
       <c r="D28">
         <v>2020</v>
@@ -895,7 +889,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>1.899045195796845</v>
+        <v>1.899045195796867</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -946,13 +940,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>1.666553973046048</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.7837484735428113</v>
+        <v>0.7837484735427891</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,7 +963,7 @@
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.174074899372003</v>
+        <v>2.174074899372025</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,7 +974,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.234912758048124</v>
+        <v>2.234912758048102</v>
       </c>
       <c r="D36">
         <v>2022</v>
@@ -1003,7 +997,7 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.420714079882469</v>
+        <v>2.420714079882447</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1014,13 +1008,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>1.879266440112803</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.897396692213404</v>
+        <v>1.897396692213427</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,7 +1031,7 @@
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.675855470842681</v>
+        <v>2.675855470842659</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1042,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>0.08570788764348247</v>
+        <v>0.08570788764350468</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.96889299227252</v>
+        <v>2.968892992272543</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,7 +1059,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-2.066535408877046</v>
+        <v>-2.066535408877035</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1082,7 +1076,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>-2.620683231370946</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1105,7 +1099,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.144506316663386</v>
+        <v>2.144506316663364</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1110,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.778873321846652</v>
+        <v>-1.778873321846641</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.001423525630042</v>
+        <v>2.001423525630064</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1127,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.622205600593475</v>
+        <v>-2.622205600593464</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.705079001006782</v>
+        <v>1.705079001006826</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1150,7 +1144,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-3.036556262700274</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1167,13 +1161,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-1.294632054637612</v>
+        <v>-1.294632054637579</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>1.098524732799055</v>
+        <v>1.098524732799033</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,7 +1178,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.3329345025757879</v>
+        <v>-0.3329345025757768</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1201,7 +1195,7 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.557425278522063</v>
+        <v>-2.557425278522041</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -1224,7 +1218,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-0.3708115103701948</v>
+        <v>-0.370811510370217</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,7 +1235,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.6498810267316468</v>
+        <v>0.649881026731669</v>
       </c>
     </row>
     <row r="52" spans="1:5">

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>0.05194865208939525</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-0.7200474048664085</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-0.2284091334091687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
